--- a/TeamList 20170315gt.xlsx
+++ b/TeamList 20170315gt.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gordon.tsai\Documents\GitHub\MarchMadness\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gordontsai/Documents/MarchMadness/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15040"/>
   </bookViews>
   <sheets>
-    <sheet name="TeamList 20170314gt" sheetId="1" r:id="rId1"/>
+    <sheet name="Bracket" sheetId="1" r:id="rId1"/>
+    <sheet name="Bracket Table" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="autoNoTable" iterate="1"/>
+  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="426">
   <si>
     <t>Team</t>
   </si>
@@ -1096,13 +1105,214 @@
   </si>
   <si>
     <t>Winner</t>
+  </si>
+  <si>
+    <t>MatchUp</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Villanova vs. Mount St Mary's</t>
+  </si>
+  <si>
+    <t>Wisconsin vs. Virginia Tech</t>
+  </si>
+  <si>
+    <t>Virginia vs. UNC Wilmington</t>
+  </si>
+  <si>
+    <t>Florida vs. East Tennessee State</t>
+  </si>
+  <si>
+    <t>Baylor vs. New Mexico State</t>
+  </si>
+  <si>
+    <t>South Carolina vs. Marquette</t>
+  </si>
+  <si>
+    <t>Duke vs. Troy</t>
+  </si>
+  <si>
+    <t>Gonzaga vs. South Dakota State</t>
+  </si>
+  <si>
+    <t>Northwestern vs. Vanderbilt</t>
+  </si>
+  <si>
+    <t>Notre Dame vs. Princeton</t>
+  </si>
+  <si>
+    <t>West Virginia vs. Bucknell</t>
+  </si>
+  <si>
+    <t>Maryland vs. Xavier</t>
+  </si>
+  <si>
+    <t>Florida State vs. Florida Gulf Coast</t>
+  </si>
+  <si>
+    <t>Saint Mary's vs. VCU</t>
+  </si>
+  <si>
+    <t>Arizona vs. North Dakota</t>
+  </si>
+  <si>
+    <t>Miami vs. Michigan State</t>
+  </si>
+  <si>
+    <t>Iowa State vs. Nevada</t>
+  </si>
+  <si>
+    <t>Purdue vs. Vermont</t>
+  </si>
+  <si>
+    <t>Creighton vs. Rhode Island</t>
+  </si>
+  <si>
+    <t>Oregon vs. Iona</t>
+  </si>
+  <si>
+    <t>Michigan vs. Oklahoma State</t>
+  </si>
+  <si>
+    <t>Louisville vs. Jacksonville State</t>
+  </si>
+  <si>
+    <t>North Carolina vs. Texas Southern</t>
+  </si>
+  <si>
+    <t>Arkansas vs. Seton Hall</t>
+  </si>
+  <si>
+    <t>Minnesota vs. Middle Tennessee</t>
+  </si>
+  <si>
+    <t>Butler vs. Winthrop</t>
+  </si>
+  <si>
+    <t>Cincinnati vs. Kansas State</t>
+  </si>
+  <si>
+    <t>UCLA vs. Kent State</t>
+  </si>
+  <si>
+    <t>Dayton vs. Wichita State</t>
+  </si>
+  <si>
+    <t>Kentucky vs. Northern Kentucky</t>
+  </si>
+  <si>
+    <t>SMU vs. USC</t>
+  </si>
+  <si>
+    <t>Kansas vs. UC Davis</t>
+  </si>
+  <si>
+    <t>Villanova vs. Wisconsin</t>
+  </si>
+  <si>
+    <t>Virginia vs. Florida</t>
+  </si>
+  <si>
+    <t>SMU vs. Baylor</t>
+  </si>
+  <si>
+    <t>South Carolina vs. Duke</t>
+  </si>
+  <si>
+    <t>Gonzaga vs. Vanderbilt</t>
+  </si>
+  <si>
+    <t>Notre Dame vs. West Virginia</t>
+  </si>
+  <si>
+    <t>Maryland vs. Florida State</t>
+  </si>
+  <si>
+    <t>VCU vs. Arizona</t>
+  </si>
+  <si>
+    <t>Kansas vs. Michigan State</t>
+  </si>
+  <si>
+    <t>Iowa State vs. Purdue</t>
+  </si>
+  <si>
+    <t>Creighton vs. Oregon</t>
+  </si>
+  <si>
+    <t>Oklahoma State vs. Louisville</t>
+  </si>
+  <si>
+    <t>North Carolina vs. Arkansas</t>
+  </si>
+  <si>
+    <t>Minnesota vs. Butler</t>
+  </si>
+  <si>
+    <t>Cincinnati vs. UCLA</t>
+  </si>
+  <si>
+    <t>Wichita State vs. Kentucky</t>
+  </si>
+  <si>
+    <t>Wisconsin vs. Virginia</t>
+  </si>
+  <si>
+    <t>Baylor vs. Duke</t>
+  </si>
+  <si>
+    <t>Gonzaga vs. West Virginia</t>
+  </si>
+  <si>
+    <t>Maryland vs. Arizona</t>
+  </si>
+  <si>
+    <t>Kansas vs. Iowa State</t>
+  </si>
+  <si>
+    <t>Oregon vs. Oklahoma State</t>
+  </si>
+  <si>
+    <t>North Carolina vs. Butler</t>
+  </si>
+  <si>
+    <t>Cincinnati vs. Kentucky</t>
+  </si>
+  <si>
+    <t>Virginia vs. Duke</t>
+  </si>
+  <si>
+    <t>West Virginia vs. Arizona</t>
+  </si>
+  <si>
+    <t>Kansas vs. Oklahoma State</t>
+  </si>
+  <si>
+    <t>North Carolina vs. Kentucky</t>
+  </si>
+  <si>
+    <t>Virginia vs. Arizona</t>
+  </si>
+  <si>
+    <t>Kansas vs. Kentucky</t>
+  </si>
+  <si>
+    <t>Virginia vs. Kentucky</t>
+  </si>
+  <si>
+    <t>Standard Difference for 1000 simulations</t>
+  </si>
+  <si>
+    <t>Quartile 25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1240,6 +1450,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1426,7 +1652,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1546,41 +1772,41 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1588,18 +1814,18 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1607,44 +1833,44 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1653,21 +1879,30 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1710,8 +1945,12 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1721,7 +1960,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1730,8 +1968,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1760,11 +2015,15 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1775,7 +2034,407 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="57">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2053,16 +2712,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q350"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="17" width="15.7109375" customWidth="1"/>
+    <col min="5" max="17" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2102,2412 +2761,4282 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="str">
-        <f>E2</f>
-        <v>Villanova</v>
-      </c>
-      <c r="P3" s="7" t="str">
-        <f>Q2</f>
-        <v>Kansas</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="17">
+        <f>'Bracket Table'!C2</f>
+        <v>2.38420018815158</v>
+      </c>
+      <c r="P3" s="17">
+        <f>'Bracket Table'!C18</f>
+        <v>2.5193820447628599</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4" t="str">
-        <f>F5</f>
-        <v>Wisconsin</v>
-      </c>
-      <c r="O4" t="str">
-        <f>P3</f>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="18" t="str">
+        <f>'Bracket Table'!B2</f>
+        <v>Villanova</v>
+      </c>
+      <c r="G4" s="17">
+        <f>'Bracket Table'!C34</f>
+        <v>0.155152951076026</v>
+      </c>
+      <c r="O4" s="17">
+        <f>'Bracket Table'!C42</f>
+        <v>2.3231395828551899E-2</v>
+      </c>
+      <c r="P4" s="7" t="str">
+        <f>'Bracket Table'!B18</f>
         <v>Kansas</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q4" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7" t="str">
-        <f>E5</f>
+      <c r="E5" s="1"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4" t="str">
+        <f>'Bracket Table'!B34</f>
         <v>Wisconsin</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="4" t="str">
-        <f>Q6</f>
-        <v>Michigan State</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O5" t="str">
+        <f>'Bracket Table'!B42</f>
+        <v>Kansas</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="O6" s="14"/>
-      <c r="Q6" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f>'Bracket Table'!B3</f>
+        <v>Wisconsin</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="4" t="str">
+        <f>'Bracket Table'!B19</f>
+        <v>Michigan State</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="17">
+        <f>'Bracket Table'!C3</f>
+        <v>0.84255383566196296</v>
+      </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="7" t="str">
-        <f>O4</f>
-        <v>Kansas</v>
-      </c>
-      <c r="O7" s="14"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H7" s="19">
+        <f>'Bracket Table'!C50</f>
+        <v>1.2291428795664999E-2</v>
+      </c>
+      <c r="N7" s="17">
+        <f>'Bracket Table'!C54</f>
+        <v>0.122073212943398</v>
+      </c>
+      <c r="O7" s="13"/>
+      <c r="P7" s="17">
+        <f>'Bracket Table'!C19</f>
+        <v>0.28638407019400702</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="1"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
+      <c r="H8" s="4" t="str">
+        <f>'Bracket Table'!B50</f>
+        <v>Virginia</v>
+      </c>
+      <c r="N8" s="7" t="str">
+        <f>'Bracket Table'!B54</f>
+        <v>Kansas</v>
+      </c>
+      <c r="O8" s="13"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="Q9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="6" t="str">
-        <f>E9</f>
-        <v>Virginia</v>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="17">
+        <f>'Bracket Table'!C4</f>
+        <v>2.7736778499008001</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="7" t="str">
-        <f>Q9</f>
-        <v>Iowa State</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="17">
+        <f>'Bracket Table'!C20</f>
+        <v>1.9471350479901499</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="11" t="str">
-        <f>F10</f>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="6" t="str">
+        <f>'Bracket Table'!B4</f>
         <v>Virginia</v>
       </c>
+      <c r="G11" s="19">
+        <f>'Bracket Table'!C35</f>
+        <v>0.27655777938652099</v>
+      </c>
       <c r="H11" s="8"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="11" t="str">
-        <f>P10</f>
+      <c r="N11" s="13"/>
+      <c r="O11" s="20">
+        <f>'Bracket Table'!C43</f>
+        <v>0.138628320824499</v>
+      </c>
+      <c r="P11" s="7" t="str">
+        <f>'Bracket Table'!B20</f>
         <v>Iowa State</v>
       </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q11" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="str">
-        <f>E12</f>
-        <v>Florida</v>
+      <c r="E12" s="1"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="10" t="str">
+        <f>'Bracket Table'!B35</f>
+        <v>Virginia</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="N12" s="14"/>
-      <c r="P12" s="4" t="str">
-        <f>Q12</f>
-        <v>Purdue</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N12" s="13"/>
+      <c r="O12" s="10" t="str">
+        <f>'Bracket Table'!B43</f>
+        <v>Iowa State</v>
+      </c>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>33</v>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f>'Bracket Table'!B5</f>
+        <v>Florida</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="N13" s="14"/>
-      <c r="Q13" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N13" s="13"/>
+      <c r="P13" s="4" t="str">
+        <f>'Bracket Table'!B21</f>
+        <v>Purdue</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="17">
+        <f>'Bracket Table'!C5</f>
+        <v>2.4542441741127701</v>
+      </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="4"/>
-      <c r="M14" s="7" t="str">
-        <f>N7</f>
-        <v>Kansas</v>
-      </c>
-      <c r="N14" s="14"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I14" s="19">
+        <f>'Bracket Table'!C58</f>
+        <v>0.14136487511367901</v>
+      </c>
+      <c r="M14" s="17">
+        <f>'Bracket Table'!C60</f>
+        <v>1.69251983828696E-2</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="P14" s="17">
+        <f>'Bracket Table'!C21</f>
+        <v>2.23364902116688</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="1"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="5" t="str">
-        <f>H7</f>
+      <c r="I15" s="4" t="str">
+        <f>'Bracket Table'!B58</f>
         <v>Virginia</v>
       </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="14"/>
+      <c r="M15" s="7" t="str">
+        <f>'Bracket Table'!B60</f>
+        <v>Kansas</v>
+      </c>
+      <c r="N15" s="13"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="9"/>
+      <c r="E16" s="1"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="Q16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I16" s="5"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="6" t="str">
-        <f>E16</f>
-        <v>SMU</v>
+      <c r="E17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="17">
+        <f>'Bracket Table'!C6</f>
+        <v>0.173142547487419</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="P17" s="7" t="str">
-        <f>Q16</f>
-        <v>Creighton</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="P17" s="17">
+        <f>'Bracket Table'!C22</f>
+        <v>1.4793209387719299</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4" t="str">
-        <f>F19</f>
-        <v>Baylor</v>
+      <c r="E18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="18" t="str">
+        <f>'Bracket Table'!B6</f>
+        <v>SMU</v>
+      </c>
+      <c r="G18" s="17">
+        <f>'Bracket Table'!C36</f>
+        <v>0.50259463879821198</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" t="str">
-        <f>P19</f>
-        <v>Oregon</v>
-      </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="17">
+        <f>'Bracket Table'!C44</f>
+        <v>0.151454244205217</v>
+      </c>
+      <c r="P18" s="7" t="str">
+        <f>'Bracket Table'!B22</f>
+        <v>Creighton</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="7" t="str">
-        <f>E19</f>
+      <c r="E19" s="1"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4" t="str">
+        <f>'Bracket Table'!B36</f>
         <v>Baylor</v>
       </c>
-      <c r="G19" s="5"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="4" t="str">
-        <f>Q19</f>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" t="str">
+        <f>'Bracket Table'!B44</f>
         <v>Oregon</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P19" s="12"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="8"/>
+      <c r="E20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f>'Bracket Table'!B7</f>
+        <v>Baylor</v>
+      </c>
+      <c r="G20" s="5"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="Q20" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="4" t="str">
+        <f>'Bracket Table'!B23</f>
+        <v>Oregon</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="17">
+        <f>'Bracket Table'!C7</f>
+        <v>2.0523021610624999</v>
+      </c>
       <c r="G21" s="8"/>
-      <c r="H21" s="11" t="str">
-        <f>G25</f>
-        <v>Duke</v>
+      <c r="H21" s="19">
+        <f>'Bracket Table'!C51</f>
+        <v>0.17499214129343399</v>
       </c>
       <c r="I21" s="8"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="11" t="str">
-        <f>O25</f>
-        <v>Oklahoma State</v>
-      </c>
-      <c r="O21" s="14"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M21" s="13"/>
+      <c r="N21" s="17">
+        <f>'Bracket Table'!C55</f>
+        <v>9.8122078449678796E-2</v>
+      </c>
+      <c r="O21" s="13"/>
+      <c r="P21" s="17">
+        <f>'Bracket Table'!C23</f>
+        <v>1.56813090222565</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E22" s="1"/>
       <c r="G22" s="8"/>
+      <c r="H22" s="10" t="str">
+        <f>'Bracket Table'!B51</f>
+        <v>Duke</v>
+      </c>
       <c r="I22" s="8"/>
-      <c r="M22" s="14"/>
-      <c r="O22" s="14"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="10" t="str">
+        <f>'Bracket Table'!B55</f>
+        <v>Oklahoma State</v>
+      </c>
+      <c r="O22" s="13"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="8"/>
+      <c r="E23" s="1"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="13"/>
       <c r="I23" s="8"/>
-      <c r="M23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="Q23" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="6" t="str">
-        <f>E23</f>
-        <v>South Carolina</v>
-      </c>
-      <c r="G24" s="8"/>
+      <c r="E24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="17">
+        <f>'Bracket Table'!C8</f>
+        <v>0.49895967726285201</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="8"/>
-      <c r="M24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="7" t="str">
-        <f>Q24</f>
-        <v>Oklahoma State</v>
-      </c>
-      <c r="Q24" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="17">
+        <f>'Bracket Table'!C24</f>
+        <v>0.14916195576178801</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="11" t="str">
-        <f>F26</f>
-        <v>Duke</v>
-      </c>
+      <c r="E25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="6" t="str">
+        <f>'Bracket Table'!B8</f>
+        <v>South Carolina</v>
+      </c>
+      <c r="G25" s="22">
+        <f>'Bracket Table'!C37</f>
+        <v>0.43928768441228699</v>
+      </c>
+      <c r="H25" s="13"/>
       <c r="I25" s="8"/>
-      <c r="M25" s="14"/>
-      <c r="O25" s="11" t="str">
-        <f>P24</f>
+      <c r="M25" s="13"/>
+      <c r="O25" s="17">
+        <f>'Bracket Table'!C45</f>
+        <v>7.8171730689754096E-2</v>
+      </c>
+      <c r="P25" s="7" t="str">
+        <f>'Bracket Table'!B24</f>
         <v>Oklahoma State</v>
       </c>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q25" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="7" t="str">
-        <f>E26</f>
+      <c r="E26" s="1"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4" t="str">
+        <f>'Bracket Table'!B37</f>
         <v>Duke</v>
       </c>
+      <c r="H26" s="13"/>
       <c r="I26" s="8"/>
-      <c r="K26" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="M26" s="14"/>
-      <c r="P26" s="4" t="str">
-        <f>Q26</f>
-        <v>Louisville</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M26" s="13"/>
+      <c r="O26" s="10" t="str">
+        <f>'Bracket Table'!B45</f>
+        <v>Oklahoma State</v>
+      </c>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="E27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="str">
+        <f>'Bracket Table'!B9</f>
+        <v>Duke</v>
+      </c>
+      <c r="H27" s="21"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="4" t="str">
-        <f>I15</f>
-        <v>Virginia</v>
-      </c>
-      <c r="K27" s="15" t="str">
-        <f>J27</f>
-        <v>Virginia</v>
-      </c>
-      <c r="L27" s="7" t="str">
-        <f>M42</f>
-        <v>Kentucky</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="Q27" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J27" s="17">
+        <f>'Bracket Table'!C62</f>
+        <v>0.149000686205362</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L27" s="17">
+        <f>'Bracket Table'!C63</f>
+        <v>0.14327170753955201</v>
+      </c>
+      <c r="M27" s="13"/>
+      <c r="P27" s="4" t="str">
+        <f>'Bracket Table'!B25</f>
+        <v>Louisville</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="17">
+        <f>'Bracket Table'!C9</f>
+        <v>2.8146739440716599</v>
+      </c>
+      <c r="H28" s="21"/>
       <c r="I28" s="8"/>
-      <c r="M28" s="14"/>
-      <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J28" s="4" t="str">
+        <f>'Bracket Table'!B62</f>
+        <v>Virginia</v>
+      </c>
+      <c r="K28" s="14" t="str">
+        <f>'Bracket Table'!B64</f>
+        <v>Virginia</v>
+      </c>
+      <c r="L28" s="7" t="str">
+        <f>'Bracket Table'!B63</f>
+        <v>Kentucky</v>
+      </c>
+      <c r="M28" s="13"/>
+      <c r="P28" s="17">
+        <f>'Bracket Table'!C25</f>
+        <v>2.5712648930100199</v>
+      </c>
+      <c r="Q28" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="I29" s="8"/>
-      <c r="M29" s="14"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="17">
+        <f>'Bracket Table'!C64</f>
+        <v>0.13661421518407199</v>
+      </c>
+      <c r="L29" s="5"/>
+      <c r="M29" s="21"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I30" s="8"/>
-      <c r="M30" s="14"/>
-      <c r="Q30" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="13"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="21"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="6" t="str">
-        <f>E30</f>
-        <v>Gonzaga</v>
-      </c>
-      <c r="I31" s="8"/>
-      <c r="M31" s="14"/>
-      <c r="P31" s="7" t="str">
-        <f>Q30</f>
-        <v>North Carolina</v>
-      </c>
-      <c r="Q31" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="17">
+        <f>'Bracket Table'!C10</f>
+        <v>1.9295010173404601</v>
+      </c>
+      <c r="J31" s="13"/>
+      <c r="L31" s="8"/>
+      <c r="P31" s="17">
+        <f>'Bracket Table'!C26</f>
+        <v>1.6509601935537399</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="4" t="str">
-        <f>F31</f>
+      <c r="E32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="18" t="str">
+        <f>'Bracket Table'!B10</f>
         <v>Gonzaga</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="M32" s="14"/>
-      <c r="O32" t="str">
-        <f>P31</f>
+      <c r="G32" s="17">
+        <f>'Bracket Table'!C38</f>
+        <v>0.23374339642362599</v>
+      </c>
+      <c r="J32" s="13"/>
+      <c r="L32" s="8"/>
+      <c r="O32" s="17">
+        <f>'Bracket Table'!C46</f>
+        <v>0.42587849643864301</v>
+      </c>
+      <c r="P32" s="7" t="str">
+        <f>'Bracket Table'!B26</f>
         <v>North Carolina</v>
       </c>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q32" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="7" t="str">
-        <f>E34</f>
-        <v>Vanderbilt</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="I33" s="8"/>
-      <c r="M33" s="14"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="4" t="str">
-        <f>Q33</f>
-        <v>Arkansas</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4" t="str">
+        <f>'Bracket Table'!B38</f>
+        <v>Gonzaga</v>
+      </c>
+      <c r="J33" s="13"/>
+      <c r="L33" s="8"/>
+      <c r="O33" t="str">
+        <f>'Bracket Table'!B46</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="M34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="Q34" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="7" t="str">
+        <f>'Bracket Table'!B11</f>
+        <v>Vanderbilt</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="J34" s="13"/>
+      <c r="L34" s="8"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="4" t="str">
+        <f>'Bracket Table'!B27</f>
+        <v>Arkansas</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="17">
+        <f>'Bracket Table'!C11</f>
+        <v>0.131382421102929</v>
+      </c>
       <c r="G35" s="8"/>
-      <c r="H35" s="4" t="str">
-        <f>G39</f>
-        <v>West Virginia</v>
-      </c>
-      <c r="I35" s="8"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="7" t="str">
-        <f>O32</f>
-        <v>North Carolina</v>
-      </c>
-      <c r="O35" s="14"/>
-      <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H35" s="19">
+        <f>'Bracket Table'!C52</f>
+        <v>0.14323146730112099</v>
+      </c>
+      <c r="J35" s="13"/>
+      <c r="L35" s="8"/>
+      <c r="N35" s="17">
+        <f>'Bracket Table'!C56</f>
+        <v>0.314696904567633</v>
+      </c>
+      <c r="O35" s="13"/>
+      <c r="P35" s="17">
+        <f>'Bracket Table'!C27</f>
+        <v>0.55121571553786297</v>
+      </c>
+      <c r="Q35" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E36" s="1"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
+      <c r="H36" s="4" t="str">
+        <f>'Bracket Table'!B52</f>
+        <v>West Virginia</v>
+      </c>
+      <c r="J36" s="13"/>
+      <c r="L36" s="8"/>
+      <c r="N36" s="7" t="str">
+        <f>'Bracket Table'!B56</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="O36" s="13"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="E37" s="1"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="Q37" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J37" s="13"/>
+      <c r="L37" s="8"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" s="6" t="str">
-        <f>E37</f>
-        <v>Notre Dame</v>
+      <c r="E38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="17">
+        <f>'Bracket Table'!C12</f>
+        <v>2.1690843968035902</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="7" t="str">
-        <f>Q37</f>
-        <v>Minnesota</v>
-      </c>
-      <c r="Q38" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J38" s="13"/>
+      <c r="L38" s="8"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="17">
+        <f>'Bracket Table'!C28</f>
+        <v>1.2457470298568301</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="11" t="str">
-        <f>F40</f>
-        <v>West Virginia</v>
+      <c r="E39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="6" t="str">
+        <f>'Bracket Table'!B12</f>
+        <v>Notre Dame</v>
+      </c>
+      <c r="G39" s="19">
+        <f>'Bracket Table'!C39</f>
+        <v>9.4165705678816797E-2</v>
       </c>
       <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="11" t="str">
-        <f>P40</f>
-        <v>Butler</v>
-      </c>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="1"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J39" s="13"/>
+      <c r="L39" s="8"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="20">
+        <f>'Bracket Table'!C47</f>
+        <v>0.80734752650291897</v>
+      </c>
+      <c r="P39" s="7" t="str">
+        <f>'Bracket Table'!B28</f>
+        <v>Minnesota</v>
+      </c>
+      <c r="Q39" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="7" t="str">
-        <f>E40</f>
+      <c r="E40" s="1"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="10" t="str">
+        <f>'Bracket Table'!B39</f>
         <v>West Virginia</v>
       </c>
       <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="P40" s="4" t="str">
-        <f>Q40</f>
+      <c r="J40" s="13"/>
+      <c r="L40" s="8"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="10" t="str">
+        <f>'Bracket Table'!B47</f>
         <v>Butler</v>
       </c>
-      <c r="Q40" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P40" s="12"/>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>69</v>
+      <c r="E41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="7" t="str">
+        <f>'Bracket Table'!B13</f>
+        <v>West Virginia</v>
       </c>
       <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="Q41" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J41" s="13"/>
+      <c r="L41" s="8"/>
+      <c r="N41" s="13"/>
+      <c r="P41" s="4" t="str">
+        <f>'Bracket Table'!B29</f>
+        <v>Butler</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="1"/>
+      <c r="E42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="17">
+        <f>'Bracket Table'!C13</f>
+        <v>2.5637401441083099</v>
+      </c>
       <c r="H42" s="8"/>
-      <c r="I42" s="11" t="str">
-        <f>H49</f>
-        <v>Arizona</v>
-      </c>
-      <c r="M42" s="11" t="str">
-        <f>N49</f>
-        <v>Kentucky</v>
-      </c>
-      <c r="N42" s="14"/>
-      <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I42" s="22">
+        <f>'Bracket Table'!C59</f>
+        <v>0.22886246488404999</v>
+      </c>
+      <c r="J42" s="13"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="17">
+        <f>'Bracket Table'!C61</f>
+        <v>4.5759364729233198E-2</v>
+      </c>
+      <c r="N42" s="13"/>
+      <c r="P42" s="17">
+        <f>'Bracket Table'!C29</f>
+        <v>1.83828513025648</v>
+      </c>
+      <c r="Q42" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E43" s="1"/>
       <c r="H43" s="8"/>
-      <c r="N43" s="14"/>
+      <c r="I43" s="4" t="str">
+        <f>'Bracket Table'!B59</f>
+        <v>Arizona</v>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="7" t="str">
+        <f>'Bracket Table'!B61</f>
+        <v>Kentucky</v>
+      </c>
+      <c r="N43" s="13"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="H44" s="8"/>
-      <c r="N44" s="14"/>
-      <c r="Q44" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I44" s="23"/>
+      <c r="J44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="13"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45" s="6" t="str">
-        <f>E44</f>
-        <v>Maryland</v>
+      <c r="E45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" s="17">
+        <f>'Bracket Table'!C14</f>
+        <v>0.20787127458733301</v>
       </c>
       <c r="H45" s="8"/>
-      <c r="N45" s="14"/>
-      <c r="P45" s="7" t="str">
-        <f>Q44</f>
-        <v>Cincinnati</v>
-      </c>
-      <c r="Q45" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="13"/>
+      <c r="P45" s="17">
+        <f>'Bracket Table'!C30</f>
+        <v>4.3570775726910697E-2</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="4" t="str">
-        <f>F45</f>
+      <c r="E46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="18" t="str">
+        <f>'Bracket Table'!B14</f>
         <v>Maryland</v>
       </c>
+      <c r="G46" s="17">
+        <f>'Bracket Table'!C40</f>
+        <v>0.27501560883881498</v>
+      </c>
       <c r="H46" s="8"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="7" t="str">
-        <f>P45</f>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="17">
+        <f>'Bracket Table'!C48</f>
+        <v>1.96765408556984E-2</v>
+      </c>
+      <c r="P46" s="7" t="str">
+        <f>'Bracket Table'!B30</f>
         <v>Cincinnati</v>
       </c>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="1"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q46" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" s="7" t="str">
-        <f>E47</f>
-        <v>Florida State</v>
-      </c>
-      <c r="G47" s="5"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="4" t="str">
+        <f>'Bracket Table'!B40</f>
+        <v>Maryland</v>
+      </c>
       <c r="H47" s="8"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="4" t="str">
-        <f>Q47</f>
-        <v>UCLA</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="13"/>
+      <c r="O47" t="str">
+        <f>'Bracket Table'!B48</f>
+        <v>Cincinnati</v>
+      </c>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G48" s="8"/>
+      <c r="E48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="7" t="str">
+        <f>'Bracket Table'!B15</f>
+        <v>Florida State</v>
+      </c>
+      <c r="G48" s="5"/>
       <c r="H48" s="8"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="Q48" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="4" t="str">
+        <f>'Bracket Table'!B31</f>
+        <v>UCLA</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="1"/>
+      <c r="E49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="17">
+        <f>'Bracket Table'!C15</f>
+        <v>1.85741075435777</v>
+      </c>
       <c r="G49" s="8"/>
-      <c r="H49" s="11" t="str">
-        <f>G53</f>
-        <v>Arizona</v>
-      </c>
-      <c r="N49" s="11" t="str">
-        <f>O53</f>
-        <v>Kentucky</v>
-      </c>
-      <c r="O49" s="14"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H49" s="19">
+        <f>'Bracket Table'!C53</f>
+        <v>0.33868637366962301</v>
+      </c>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="17">
+        <f>'Bracket Table'!C57</f>
+        <v>0.37063139418344199</v>
+      </c>
+      <c r="O49" s="13"/>
+      <c r="P49" s="17">
+        <f>'Bracket Table'!C31</f>
+        <v>1.6166113873812</v>
+      </c>
+      <c r="Q49" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E50" s="1"/>
       <c r="G50" s="8"/>
-      <c r="O50" s="14"/>
+      <c r="H50" s="10" t="str">
+        <f>'Bracket Table'!B53</f>
+        <v>Arizona</v>
+      </c>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="10" t="str">
+        <f>'Bracket Table'!B57</f>
+        <v>Kentucky</v>
+      </c>
+      <c r="O50" s="13"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G51" s="8"/>
-      <c r="O51" s="14"/>
-      <c r="Q51" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="O51" s="13"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F52" s="6" t="str">
-        <f>E52</f>
-        <v>VCU</v>
-      </c>
-      <c r="G52" s="8"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="7" t="str">
-        <f>Q52</f>
-        <v>Wichita State</v>
-      </c>
-      <c r="Q52" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="17">
+        <f>'Bracket Table'!C16</f>
+        <v>0.56775444189161595</v>
+      </c>
+      <c r="G52" s="21"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="17">
+        <f>'Bracket Table'!C32</f>
+        <v>0.80284250411194802</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="11" t="str">
-        <f>F54</f>
-        <v>Arizona</v>
-      </c>
-      <c r="O53" s="11" t="str">
-        <f>P54</f>
-        <v>Kentucky</v>
-      </c>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="1"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="6" t="str">
+        <f>'Bracket Table'!B16</f>
+        <v>VCU</v>
+      </c>
+      <c r="G53" s="22">
+        <f>'Bracket Table'!C41</f>
+        <v>0.82033067661080505</v>
+      </c>
+      <c r="H53" s="13"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="17">
+        <f>'Bracket Table'!C49</f>
+        <v>0.41841343515726898</v>
+      </c>
+      <c r="P53" s="7" t="str">
+        <f>'Bracket Table'!B32</f>
+        <v>Wichita State</v>
+      </c>
+      <c r="Q53" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F54" s="7" t="str">
-        <f>E54</f>
+      <c r="E54" s="1"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="4" t="str">
+        <f>'Bracket Table'!B41</f>
         <v>Arizona</v>
       </c>
-      <c r="P54" s="4" t="str">
-        <f>Q54</f>
+      <c r="H54" s="13"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="O54" s="10" t="str">
+        <f>'Bracket Table'!B49</f>
         <v>Kentucky</v>
       </c>
-      <c r="Q54" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P54" s="12"/>
+      <c r="Q54" s="1"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q55" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="7" t="str">
+        <f>'Bracket Table'!B17</f>
+        <v>Arizona</v>
+      </c>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="P55" s="4" t="str">
+        <f>'Bracket Table'!B33</f>
+        <v>Kentucky</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E56" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="17">
+        <f>'Bracket Table'!C17</f>
+        <v>2.6155015283287302</v>
+      </c>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="P56" s="17">
+        <f>'Bracket Table'!C33</f>
+        <v>2.6067991045841401</v>
+      </c>
+      <c r="Q56" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>357</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="68" operator="lessThan" id="{3B68FBBA-2500-44B6-B9F8-54348338BD62}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="66" operator="lessThan" id="{33FFE7B1-8454-498E-9BB5-3E9C96948993}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="65" operator="lessThan" id="{1AF884F7-69F7-40B1-95A4-A9C6A57DED0B}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="64" operator="lessThan" id="{7CC12E2E-564C-41A7-946D-6F5CA6A1024F}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="63" operator="lessThan" id="{46B64B23-4061-4848-BEDB-8C8C5812D4D2}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="62" operator="lessThan" id="{538949D7-577C-4D60-B80B-81489BE674E0}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="61" operator="lessThan" id="{E1475672-59EE-4514-9FB4-2DCCBFE955CE}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="50" operator="lessThan" id="{9B893043-9C1B-40BD-BA22-821E2D690F73}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="49" operator="lessThan" id="{00BBD4E3-E3DA-441C-B592-15DB5AC9CE13}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="48" operator="lessThan" id="{EF3E06DE-10F9-4BC3-855A-4DF6C66F1EF9}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="47" operator="lessThan" id="{AB79BE0D-A79D-495D-81A8-BD54D02D4FC0}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="46" operator="lessThan" id="{B88FE0AA-2621-46FF-98CC-A65BEE3AE563}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="45" operator="lessThan" id="{A46441A2-0575-4E81-8160-C951B1357CA7}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="44" operator="lessThan" id="{2AEB502D-9D68-4B45-A225-61CBC7175EC5}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="43" operator="lessThan" id="{DEB09F6B-5BE8-4AF9-8330-1072145917B3}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="42" operator="lessThan" id="{375C2482-8222-49BE-BC0C-4A048E014E12}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="41" operator="lessThan" id="{FF7DCBDF-01BA-45A8-986D-E23A2D8392AA}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="40" operator="lessThan" id="{5BF520E2-C525-476F-8521-F0A854FA4C44}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="39" operator="lessThan" id="{57C71C4B-FB34-4ABA-A7BD-C9DE7BD1BC66}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="38" operator="lessThan" id="{41AEC27C-8924-4180-AEA1-6547FFBA487A}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="37" operator="lessThan" id="{B73660C9-A4F5-4AB7-ABD8-D878FD5C098E}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="36" operator="lessThan" id="{71437CB1-5CE0-4F10-A5A2-73B1B54C3B68}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="35" operator="lessThan" id="{C309B17B-FE9D-40DA-AB2E-3EFED1C4AC72}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="34" operator="lessThan" id="{A7E659A0-E086-4614-A332-0F47CDF70530}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="33" operator="lessThan" id="{F029152B-6F75-47F4-AD27-4DA0D680EB2A}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="32" operator="lessThan" id="{DEC25096-121F-443A-BBD0-56EF879DBFF5}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="31" operator="lessThan" id="{C0F75CE3-CE66-4D60-B5E7-E8852D82BEB7}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="30" operator="lessThan" id="{283A110E-66CC-4EBD-BD59-5F3AA5DA32E9}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="29" operator="lessThan" id="{BCA81ABF-3099-4F75-A209-72F495749F71}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="28" operator="lessThan" id="{D1A551AC-56D8-42CF-A17C-E3A2F9179E47}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="27" operator="lessThan" id="{C57C4D3A-1DB1-431F-87E5-FB246ECEAF93}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="26" operator="lessThan" id="{16390CC0-4943-42F9-83B3-AE0DF90BB1B7}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="25" operator="lessThan" id="{4EF2B9D2-1EB9-4313-B4D1-17334DBCE476}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="24" operator="lessThan" id="{0586BD0F-CC3B-4DAD-B9CF-5E85428FDEA3}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="23" operator="lessThan" id="{CDBBEF39-C05A-42B4-B74C-88804FF6A1A2}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="22" operator="lessThan" id="{E15C42B0-4124-422B-9C06-C0B18A5A3EEC}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="21" operator="lessThan" id="{AFA57228-008C-4B93-993C-B0CC3AADF498}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="20" operator="lessThan" id="{72934DA8-CF99-4AB5-B7D8-715BF3BCB4D4}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="19" operator="lessThan" id="{C7032656-9C3E-4B8C-AC18-09686F250FA6}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="18" operator="lessThan" id="{086195A5-63C3-407C-87B0-998AE85B884D}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="17" operator="lessThan" id="{3A4C5DCC-C663-41D9-B18A-3F99A1D462E3}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="16" operator="lessThan" id="{1939E5EA-DF01-4D16-A2A2-C1A5E919A38B}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="15" operator="lessThan" id="{09B955E6-06FB-4DB7-B8EB-251BD3E95967}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="14" operator="lessThan" id="{9478210D-C861-45FE-B474-FE27CE436BF2}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="13" operator="lessThan" id="{E3B7878A-8635-4C23-931F-EBEA5811BCE1}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="12" operator="lessThan" id="{97E7A6A2-F253-4E48-BA9B-36A9EDD385A2}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="11" operator="lessThan" id="{04507C3F-BD35-4EA8-B6D2-9143BBD28D7A}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="10" operator="lessThan" id="{EB28F785-C982-430D-A469-F319F7A0A4F5}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" operator="lessThan" id="{13BFA1D7-BAA1-4E2E-A544-8CC1FDABF663}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="8" operator="lessThan" id="{83A21B05-D4D9-4B65-9BB0-15F50AA41E7F}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="lessThan" id="{2A00ACBB-D12A-419D-99F6-8025BB1332B4}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="6" operator="lessThan" id="{577FF526-E135-41B9-B9DE-FCE483511B5B}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="lessThan" id="{762293CD-2B12-4C5E-8ECA-2CE3318AFAD7}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="4" operator="lessThan" id="{911AE6AE-C47A-4D84-B4CE-776F95F0EC1F}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="lessThan" id="{8B044EAC-926B-432C-92DC-7B2738219D18}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{8BDFC286-3686-4302-A414-40FD75B910D5}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="lessThan" id="{DFDD39F9-2144-4466-91CF-D7795E6B1F04}">
+            <xm:f>'Bracket Table'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P56</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>2.38420018815158</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1">
+        <v>24.698550000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>0.84255383566196296</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F3">
+        <f>_xlfn.QUARTILE.EXC(C2:C64,1)</f>
+        <v>0.14327170753955201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>2.7736778499008001</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>2.4542441741127701</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>0.173142547487419</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>2.0523021610624999</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>0.49895967726285201</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>2.8146739440716599</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10">
+        <v>1.9295010173404601</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11">
+        <v>0.131382421102929</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>370</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12">
+        <v>2.1690843968035902</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13">
+        <v>2.5637401441083099</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>372</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14">
+        <v>0.20787127458733301</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>373</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15">
+        <v>1.85741075435777</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>374</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16">
+        <v>0.56775444189161595</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>2.6155015283287302</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>392</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>2.5193820447628599</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>0.28638407019400702</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>377</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>1.9471350479901499</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>378</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>2.23364902116688</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>379</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22">
+        <v>1.4793209387719299</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23">
+        <v>1.56813090222565</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>381</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>0.14916195576178801</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>382</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25">
+        <v>2.5712648930100199</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>383</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26">
+        <v>1.6509601935537399</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>384</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>0.55121571553786297</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>385</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28">
+        <v>1.2457470298568301</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>386</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29">
+        <v>1.83828513025648</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>387</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30">
+        <v>4.3570775726910697E-2</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>388</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31">
+        <v>1.6166113873812</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>389</v>
+      </c>
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32">
+        <v>0.80284250411194802</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>390</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33">
+        <v>2.6067991045841401</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>393</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>0.155152951076026</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>394</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>0.27655777938652099</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>395</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36">
+        <v>0.50259463879821198</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>396</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37">
+        <v>0.43928768441228699</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>397</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38">
+        <v>0.23374339642362599</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>398</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39">
+        <v>9.4165705678816797E-2</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>399</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40">
+        <v>0.27501560883881498</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>400</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41">
+        <v>0.82033067661080505</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>401</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>2.3231395828551899E-2</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>402</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>0.138628320824499</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>403</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>0.151454244205217</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>404</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>7.8171730689754096E-2</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>405</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46">
+        <v>0.42587849643864301</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>406</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47">
+        <v>0.80734752650291897</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>407</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48">
+        <v>1.96765408556984E-2</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>408</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49">
+        <v>0.41841343515726898</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>409</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50">
+        <v>1.2291428795664999E-2</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>410</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51">
+        <v>0.17499214129343399</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>411</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52">
+        <v>0.14323146730112099</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>412</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53">
+        <v>0.33868637366962301</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>413</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>0.122073212943398</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>414</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>9.8122078449678796E-2</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>415</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56">
+        <v>0.314696904567633</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>416</v>
+      </c>
+      <c r="B57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57">
+        <v>0.37063139418344199</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>417</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>0.14136487511367901</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>418</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59">
+        <v>0.22886246488404999</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>419</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>1.69251983828696E-2</v>
+      </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>420</v>
+      </c>
+      <c r="B61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61">
+        <v>4.5759364729233198E-2</v>
+      </c>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>421</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>0.149000686205362</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>422</v>
+      </c>
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63">
+        <v>0.14327170753955201</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>423</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64">
+        <v>0.13661421518407199</v>
+      </c>
+      <c r="D64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
